--- a/w1d1 esercizi_extra.xlsx
+++ b/w1d1 esercizi_extra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB43F67F-D8B1-4706-B76B-7FEE3BA22A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED11519-FA36-463B-89C1-5F364B16AA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcheggio" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">COSTO TOTALE </t>
   </si>
   <si>
-    <t>non erano richiesti, ma li ho calcolati comunque</t>
+    <t>non erano da calcolare</t>
   </si>
 </sst>
 </file>
@@ -393,7 +393,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -455,7 +455,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -683,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -741,7 +741,7 @@
         <v>1.5</v>
       </c>
       <c r="C2">
-        <f>IF(OR(F2="A",F2="B",F2="C",F2="D",F2="E",F2="F"),0,IF(OR(F2="G",F2="H",F2="I",F2="J",F2="K",F2="L",F2="M"),1,2))</f>
+        <f>IF(F2&lt;"G",0,IF(F2&lt;"M",1,2))</f>
         <v>0</v>
       </c>
       <c r="D2" s="5">
@@ -761,7 +761,7 @@
         <v>2.5</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">IF(OR(F3="A",F3="B",F3="C",F3="D",F3="E",F3="F"),0,IF(OR(F3="G",F3="H",F3="I",F3="J",F3="K",F3="L",F3="M"),1,2))</f>
+        <f t="shared" ref="C3:C66" si="0">IF(F3&lt;"G",0,IF(F3&lt;"M",1,2))</f>
         <v>1</v>
       </c>
       <c r="D3" s="5">
@@ -982,11 +982,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="2"/>
@@ -1242,11 +1242,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
@@ -1502,11 +1502,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="2"/>
@@ -1762,11 +1762,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="2"/>
@@ -2022,11 +2022,11 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="5">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F66" t="str">
         <f t="shared" si="2"/>
@@ -2041,7 +2041,7 @@
         <v>0.5</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="3">IF(OR(F67="A",F67="B",F67="C",F67="D",F67="E",F67="F"),0,IF(OR(F67="G",F67="H",F67="I",F67="J",F67="K",F67="L",F67="M"),1,2))</f>
+        <f t="shared" ref="C67:C101" si="3">IF(F67&lt;"G",0,IF(F67&lt;"M",1,2))</f>
         <v>2</v>
       </c>
       <c r="D67" s="5">
@@ -2282,11 +2282,11 @@
       </c>
       <c r="C79">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="5">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" t="str">
         <f t="shared" si="5"/>
@@ -2542,11 +2542,11 @@
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="5">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="5"/>
@@ -2735,6 +2735,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2745,8 +2746,8 @@
   </sheetPr>
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2758,7 +2759,7 @@
     <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
@@ -2800,7 +2801,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>105</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
@@ -2944,7 +2945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>107</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>105</v>
       </c>
@@ -2963,7 +2964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>106</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>108</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>109</v>
       </c>
@@ -2996,7 +2997,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>106</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>105</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>107</v>
       </c>
@@ -3037,7 +3038,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>108</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>106</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>106</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>107</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>106</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>108</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>109</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
@@ -3138,7 +3139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>106</v>
       </c>
@@ -3149,7 +3150,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>105</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>107</v>
       </c>
@@ -3171,7 +3172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>106</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
@@ -3193,7 +3194,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>105</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>106</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>107</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>105</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>106</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -3264,7 +3265,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>107</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>106</v>
       </c>
@@ -3286,7 +3287,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>107</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>106</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>108</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>105</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>106</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>107</v>
       </c>

--- a/w1d1 esercizi_extra.xlsx
+++ b/w1d1 esercizi_extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED11519-FA36-463B-89C1-5F364B16AA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F75A66-2B15-46C7-B894-5F28BF0F9E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="115">
   <si>
     <t>TARGA</t>
   </si>
@@ -383,16 +383,14 @@
   </si>
   <si>
     <t xml:space="preserve">COSTO TOTALE </t>
-  </si>
-  <si>
-    <t>non erano da calcolare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
@@ -419,22 +417,15 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -446,26 +437,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,7 +674,7 @@
   <dimension ref="A1:X101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2747,13 +2737,13 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.44140625" bestFit="1" customWidth="1"/>
@@ -2766,7 +2756,7 @@
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2815,12 +2805,12 @@
         <f>COUNTIF(A:A,D2)</f>
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="9">
         <f>SUMIF(A:A,D2,B:B)</f>
         <v>525</v>
       </c>
-      <c r="G2">
-        <f>SUMIFS(C:C,A:A,D2,B:B,"&gt;=80")</f>
+      <c r="G2" s="7">
+        <f>SUMIFS(C:C,A:A,D2,B:B,"&gt;80")</f>
         <v>0</v>
       </c>
     </row>
@@ -2831,7 +2821,7 @@
       <c r="B3" s="3">
         <v>70</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="8">
         <v>80</v>
       </c>
       <c r="D3" t="s">
@@ -2841,13 +2831,13 @@
         <f>COUNTIF(A:A,D3)</f>
         <v>14</v>
       </c>
-      <c r="F3">
-        <f>SUMIF(A:A,D3,B:B)</f>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F6" si="0">SUMIF(A:A,D3,B:B)</f>
         <v>755</v>
       </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G6" si="0">SUMIFS(C:C,A:A,D3,B:B,"&gt;=80")</f>
-        <v>200</v>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G6" si="1">SUMIFS(C:C,A:A,D3,B:B,"&gt;80")</f>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,7 +2847,7 @@
       <c r="B4" s="3">
         <v>40</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>60</v>
       </c>
       <c r="D4" t="s">
@@ -2867,18 +2857,14 @@
         <f>COUNTIF(A:A,D4)</f>
         <v>11</v>
       </c>
-      <c r="F4">
-        <f>SUMIF(A:A,D4,B:B)</f>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
         <v>555</v>
       </c>
-      <c r="G4" s="6">
-        <f t="shared" si="0"/>
+      <c r="G4" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -2887,7 +2873,7 @@
       <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="8">
         <v>100</v>
       </c>
       <c r="D5" t="s">
@@ -2897,16 +2883,14 @@
         <f>COUNTIF(A:A,D5)</f>
         <v>7</v>
       </c>
-      <c r="F5">
-        <f>SUMIF(A:A,D5,B:B)</f>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" si="0"/>
+      <c r="G5" s="7">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2915,7 +2899,7 @@
       <c r="B6" s="3">
         <v>90</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="8">
         <v>30</v>
       </c>
       <c r="D6" t="s">
@@ -2925,12 +2909,12 @@
         <f>COUNTIF(A:A,D6)</f>
         <v>3</v>
       </c>
-      <c r="F6">
-        <f>SUMIF(A:A,D6,B:B)</f>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="G6" s="6">
-        <f t="shared" si="0"/>
+      <c r="G6" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2941,7 +2925,7 @@
       <c r="B7" s="3">
         <v>50</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="8">
         <v>40</v>
       </c>
     </row>
@@ -2952,7 +2936,7 @@
       <c r="B8" s="3">
         <v>60</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="8">
         <v>55</v>
       </c>
     </row>
@@ -2971,7 +2955,7 @@
       <c r="B10" s="3">
         <v>25</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="8">
         <v>85</v>
       </c>
     </row>
@@ -2982,7 +2966,7 @@
       <c r="B11" s="3">
         <v>35</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="8">
         <v>50</v>
       </c>
     </row>
@@ -2993,7 +2977,7 @@
       <c r="B12" s="3">
         <v>60</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="8">
         <v>95</v>
       </c>
     </row>
@@ -3012,7 +2996,7 @@
       <c r="B14" s="3">
         <v>40</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="8">
         <v>45</v>
       </c>
     </row>
@@ -3023,7 +3007,7 @@
       <c r="B15" s="3">
         <v>65</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="8">
         <v>65</v>
       </c>
     </row>
@@ -3034,7 +3018,7 @@
       <c r="B16" s="3">
         <v>55</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="8">
         <v>30</v>
       </c>
     </row>
@@ -3053,7 +3037,7 @@
       <c r="B18" s="3">
         <v>45</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="8">
         <v>80</v>
       </c>
     </row>
@@ -3064,7 +3048,7 @@
       <c r="B19" s="3">
         <v>25</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="8">
         <v>60</v>
       </c>
     </row>
@@ -3083,7 +3067,7 @@
       <c r="B21" s="3">
         <v>60</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="8">
         <v>30</v>
       </c>
     </row>
@@ -3094,7 +3078,7 @@
       <c r="B22" s="3">
         <v>70</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="8">
         <v>40</v>
       </c>
     </row>
@@ -3105,7 +3089,7 @@
       <c r="B23" s="3">
         <v>45</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="8">
         <v>55</v>
       </c>
     </row>
@@ -3116,7 +3100,7 @@
       <c r="B24" s="3">
         <v>25</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="8">
         <v>70</v>
       </c>
     </row>
@@ -3135,7 +3119,7 @@
       <c r="B26" s="3">
         <v>60</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="8">
         <v>50</v>
       </c>
     </row>
@@ -3146,7 +3130,7 @@
       <c r="B27" s="3">
         <v>80</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="8">
         <v>95</v>
       </c>
     </row>
@@ -3157,7 +3141,7 @@
       <c r="B28" s="3">
         <v>40</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="8">
         <v>75</v>
       </c>
     </row>
@@ -3168,7 +3152,7 @@
       <c r="B29" s="3">
         <v>65</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="8">
         <v>45</v>
       </c>
     </row>
@@ -3179,7 +3163,7 @@
       <c r="B30" s="3">
         <v>55</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="8">
         <v>65</v>
       </c>
     </row>
@@ -3190,7 +3174,7 @@
       <c r="B31" s="3">
         <v>70</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="8">
         <v>30</v>
       </c>
     </row>
@@ -3209,7 +3193,7 @@
       <c r="B33" s="3">
         <v>25</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="8">
         <v>80</v>
       </c>
     </row>
@@ -3220,7 +3204,7 @@
       <c r="B34" s="3">
         <v>35</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="8">
         <v>60</v>
       </c>
     </row>
@@ -3231,7 +3215,7 @@
       <c r="B35" s="3">
         <v>60</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="8">
         <v>100</v>
       </c>
     </row>
@@ -3242,7 +3226,7 @@
       <c r="B36" s="3">
         <v>80</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="8">
         <v>30</v>
       </c>
     </row>
@@ -3261,7 +3245,7 @@
       <c r="B38" s="3">
         <v>65</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="8">
         <v>55</v>
       </c>
     </row>
@@ -3272,7 +3256,7 @@
       <c r="B39" s="3">
         <v>55</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="8">
         <v>70</v>
       </c>
     </row>
@@ -3283,7 +3267,7 @@
       <c r="B40" s="3">
         <v>70</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="8">
         <v>85</v>
       </c>
     </row>
@@ -3294,7 +3278,7 @@
       <c r="B41" s="3">
         <v>40</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="8">
         <v>50</v>
       </c>
     </row>
@@ -3305,7 +3289,7 @@
       <c r="B42" s="3">
         <v>20</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="8">
         <v>95</v>
       </c>
     </row>
@@ -3316,7 +3300,7 @@
       <c r="B43" s="3">
         <v>90</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="8">
         <v>75</v>
       </c>
     </row>
@@ -3327,7 +3311,7 @@
       <c r="B44" s="3">
         <v>50</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="8">
         <v>45</v>
       </c>
     </row>
@@ -3338,7 +3322,7 @@
       <c r="B45" s="3">
         <v>60</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="8">
         <v>65</v>
       </c>
     </row>
@@ -3359,10 +3343,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B47" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
-  <mergeCells count="1">
-    <mergeCell ref="H4:I5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
